--- a/OpenVEHICLE_sheet_OJ.xlsx
+++ b/OpenVEHICLE_sheet_OJ.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ojeif\OneDrive\Documents\MATLAB\OpenLAP-Lap-Time-Simulator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ojeif\OneDrive\Documents\Formula\VD-FOMRULA-ELECTRIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{396AC558-488D-47B6-ACE3-0F9AA83036E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAC3DE2C-EE93-4C16-A485-D658408862A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3450" yWindow="4245" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -100,262 +100,262 @@
     <t>Brakes</t>
   </si>
   <si>
+    <t>Air Density</t>
+  </si>
+  <si>
+    <t>Disc Outer Diameter</t>
+  </si>
+  <si>
+    <t>Pad Height</t>
+  </si>
+  <si>
+    <t>Caliper Number of Pistons</t>
+  </si>
+  <si>
+    <t>Caliper Piston Diameter</t>
+  </si>
+  <si>
+    <t>Master Cylinder Piston Diameter</t>
+  </si>
+  <si>
+    <t>Pedal Ratio</t>
+  </si>
+  <si>
+    <t>Tyres</t>
+  </si>
+  <si>
+    <t>Tyre Radius</t>
+  </si>
+  <si>
+    <t>Longitudinal Friction Coefficient</t>
+  </si>
+  <si>
+    <t>Longitudinal Friction Load Rating</t>
+  </si>
+  <si>
+    <t>Longitudinal Friction Sensitivity</t>
+  </si>
+  <si>
+    <t>1/N</t>
+  </si>
+  <si>
+    <t>Rolling Resistance</t>
+  </si>
+  <si>
+    <t>Grip Factor Multiplier</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Lateral Friction Coefficient</t>
+  </si>
+  <si>
+    <t>Lateral Friction Load Rating</t>
+  </si>
+  <si>
+    <t>Lateral Friction Sensitivity</t>
+  </si>
+  <si>
+    <t>Front Cornering Stiffness</t>
+  </si>
+  <si>
+    <t>Rear Cornering Stiffness</t>
+  </si>
+  <si>
+    <t>N/deg</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Engine</t>
+  </si>
+  <si>
+    <t>Power Factor Multiplier</t>
+  </si>
+  <si>
+    <t>Thermal Efficiency</t>
+  </si>
+  <si>
+    <t>Fuel Lower Heating Value</t>
+  </si>
+  <si>
+    <t>J/kg</t>
+  </si>
+  <si>
+    <t>Transmission</t>
+  </si>
+  <si>
+    <t>Drive Type</t>
+  </si>
+  <si>
+    <t>[Steering Wheel Angle]/[Wheel Angle]</t>
+  </si>
+  <si>
+    <t>[Foot Force Application Point Lever Arm]/[Master Cylinder Lever Arm]</t>
+  </si>
+  <si>
+    <t>Primary Gear Reduction</t>
+  </si>
+  <si>
+    <t>Final Gear Reduction</t>
+  </si>
+  <si>
+    <t>1st Gear Ratio</t>
+  </si>
+  <si>
+    <t>2nd Gear Ratio</t>
+  </si>
+  <si>
+    <t>3rd Gear Ratio</t>
+  </si>
+  <si>
+    <t>4th Gear Ratio</t>
+  </si>
+  <si>
+    <t>5th Gear Ratio</t>
+  </si>
+  <si>
+    <t>6th Gear Ratio</t>
+  </si>
+  <si>
+    <t>7th Gear Ratio</t>
+  </si>
+  <si>
+    <t>8th Gear Ratio</t>
+  </si>
+  <si>
+    <t>9th Gear Ratio</t>
+  </si>
+  <si>
+    <t>10th Gear Ratio</t>
+  </si>
+  <si>
+    <t>Front Aero Distribution</t>
+  </si>
+  <si>
+    <t>Lift Coefficient CL</t>
+  </si>
+  <si>
+    <t>Drag Coefficient CD</t>
+  </si>
+  <si>
+    <t>Primary Gear Efficiency</t>
+  </si>
+  <si>
+    <t>Final Gear Efficiency</t>
+  </si>
+  <si>
+    <t>Gearbox Efficiency</t>
+  </si>
+  <si>
+    <t>Pad Friction Coefficient</t>
+  </si>
+  <si>
+    <t>Gear Shift Time</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>Only used in dragster mode</t>
+  </si>
+  <si>
+    <t>Assumed to be the same on all pads. Recommended value: 0.45</t>
+  </si>
+  <si>
+    <t>Recommended value:  800-1000</t>
+  </si>
+  <si>
+    <t>Assumed to be the same on all tyres. Should be positive. Recommended value:  0.0001</t>
+  </si>
+  <si>
+    <t>Recommended value:  1.225</t>
+  </si>
+  <si>
+    <t>Should be negative</t>
+  </si>
+  <si>
+    <t>Positive = Lift / Negative = Downforce</t>
+  </si>
+  <si>
+    <t>Recommended value:  0.90 for bevel gears</t>
+  </si>
+  <si>
+    <t>Recommended value:  0.98 for spur/helical gears</t>
+  </si>
+  <si>
+    <t>Assumed to be the same on all tyres. Recommended value: M/4</t>
+  </si>
+  <si>
+    <t>Assumed to be the same on all tyres. Slick tyres: 1.8, Street tyres: 0.9-1.2</t>
+  </si>
+  <si>
+    <t>Assumed to be the same on all tyres. Needs to be negative. Recommended value: -0.001</t>
+  </si>
+  <si>
+    <t>Assumed to be the same on all tyres.</t>
+  </si>
+  <si>
+    <t>Assumed to be the same on all corners.</t>
+  </si>
+  <si>
+    <t>Assumed to be the same both front and rear.</t>
+  </si>
+  <si>
+    <t>Recommended value: 0.3 for ICE</t>
+  </si>
+  <si>
+    <t>Recommended value:  4.72E+07 for petrol</t>
+  </si>
+  <si>
+    <t>From crancskaft to Input shaft.</t>
+  </si>
+  <si>
+    <t>EV7</t>
+  </si>
+  <si>
+    <t>Open Wheel</t>
+  </si>
+  <si>
+    <t>Weight Distr W 68kg Driver Front</t>
+  </si>
+  <si>
+    <t>RWD</t>
+  </si>
+  <si>
+    <t>Configuration</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>CD</t>
+  </si>
+  <si>
+    <t>Pitch Front</t>
+  </si>
+  <si>
+    <t>Pitch Rear</t>
+  </si>
+  <si>
     <t>CL Scale Multiplier</t>
   </si>
   <si>
     <t>CD Scale Multiplier</t>
-  </si>
-  <si>
-    <t>Air Density</t>
-  </si>
-  <si>
-    <t>Disc Outer Diameter</t>
-  </si>
-  <si>
-    <t>Pad Height</t>
-  </si>
-  <si>
-    <t>Caliper Number of Pistons</t>
-  </si>
-  <si>
-    <t>Caliper Piston Diameter</t>
-  </si>
-  <si>
-    <t>Master Cylinder Piston Diameter</t>
-  </si>
-  <si>
-    <t>Pedal Ratio</t>
-  </si>
-  <si>
-    <t>Tyres</t>
-  </si>
-  <si>
-    <t>Tyre Radius</t>
-  </si>
-  <si>
-    <t>Longitudinal Friction Coefficient</t>
-  </si>
-  <si>
-    <t>Longitudinal Friction Load Rating</t>
-  </si>
-  <si>
-    <t>Longitudinal Friction Sensitivity</t>
-  </si>
-  <si>
-    <t>1/N</t>
-  </si>
-  <si>
-    <t>Rolling Resistance</t>
-  </si>
-  <si>
-    <t>Grip Factor Multiplier</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Lateral Friction Coefficient</t>
-  </si>
-  <si>
-    <t>Lateral Friction Load Rating</t>
-  </si>
-  <si>
-    <t>Lateral Friction Sensitivity</t>
-  </si>
-  <si>
-    <t>Front Cornering Stiffness</t>
-  </si>
-  <si>
-    <t>Rear Cornering Stiffness</t>
-  </si>
-  <si>
-    <t>N/deg</t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Unit</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>Engine</t>
-  </si>
-  <si>
-    <t>Power Factor Multiplier</t>
-  </si>
-  <si>
-    <t>Thermal Efficiency</t>
-  </si>
-  <si>
-    <t>Fuel Lower Heating Value</t>
-  </si>
-  <si>
-    <t>J/kg</t>
-  </si>
-  <si>
-    <t>Transmission</t>
-  </si>
-  <si>
-    <t>Drive Type</t>
-  </si>
-  <si>
-    <t>[Steering Wheel Angle]/[Wheel Angle]</t>
-  </si>
-  <si>
-    <t>[Foot Force Application Point Lever Arm]/[Master Cylinder Lever Arm]</t>
-  </si>
-  <si>
-    <t>Primary Gear Reduction</t>
-  </si>
-  <si>
-    <t>Final Gear Reduction</t>
-  </si>
-  <si>
-    <t>1st Gear Ratio</t>
-  </si>
-  <si>
-    <t>2nd Gear Ratio</t>
-  </si>
-  <si>
-    <t>3rd Gear Ratio</t>
-  </si>
-  <si>
-    <t>4th Gear Ratio</t>
-  </si>
-  <si>
-    <t>5th Gear Ratio</t>
-  </si>
-  <si>
-    <t>6th Gear Ratio</t>
-  </si>
-  <si>
-    <t>7th Gear Ratio</t>
-  </si>
-  <si>
-    <t>8th Gear Ratio</t>
-  </si>
-  <si>
-    <t>9th Gear Ratio</t>
-  </si>
-  <si>
-    <t>10th Gear Ratio</t>
-  </si>
-  <si>
-    <t>Front Aero Distribution</t>
-  </si>
-  <si>
-    <t>Lift Coefficient CL</t>
-  </si>
-  <si>
-    <t>Drag Coefficient CD</t>
-  </si>
-  <si>
-    <t>Primary Gear Efficiency</t>
-  </si>
-  <si>
-    <t>Final Gear Efficiency</t>
-  </si>
-  <si>
-    <t>Gearbox Efficiency</t>
-  </si>
-  <si>
-    <t>Pad Friction Coefficient</t>
-  </si>
-  <si>
-    <t>Gear Shift Time</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>Only used in dragster mode</t>
-  </si>
-  <si>
-    <t>Assumed to be the same on all pads. Recommended value: 0.45</t>
-  </si>
-  <si>
-    <t>Recommended value:  800-1000</t>
-  </si>
-  <si>
-    <t>Assumed to be the same on all tyres. Should be positive. Recommended value:  0.0001</t>
-  </si>
-  <si>
-    <t>Recommended value:  1.225</t>
-  </si>
-  <si>
-    <t>Should be negative</t>
-  </si>
-  <si>
-    <t>Positive = Lift / Negative = Downforce</t>
-  </si>
-  <si>
-    <t>Recommended value:  0.90 for bevel gears</t>
-  </si>
-  <si>
-    <t>Recommended value:  0.98 for spur/helical gears</t>
-  </si>
-  <si>
-    <t>Assumed to be the same on all tyres. Recommended value: M/4</t>
-  </si>
-  <si>
-    <t>Assumed to be the same on all tyres. Slick tyres: 1.8, Street tyres: 0.9-1.2</t>
-  </si>
-  <si>
-    <t>Assumed to be the same on all tyres. Needs to be negative. Recommended value: -0.001</t>
-  </si>
-  <si>
-    <t>Assumed to be the same on all tyres.</t>
-  </si>
-  <si>
-    <t>Assumed to be the same on all corners.</t>
-  </si>
-  <si>
-    <t>Assumed to be the same both front and rear.</t>
-  </si>
-  <si>
-    <t>Recommended value: 0.3 for ICE</t>
-  </si>
-  <si>
-    <t>Recommended value:  4.72E+07 for petrol</t>
-  </si>
-  <si>
-    <t>From crancskaft to Input shaft.</t>
-  </si>
-  <si>
-    <t>EV7</t>
-  </si>
-  <si>
-    <t>Open Wheel</t>
-  </si>
-  <si>
-    <t>Weight Distr W 68kg Driver Front</t>
-  </si>
-  <si>
-    <t>RWD</t>
-  </si>
-  <si>
-    <t>Configuration</t>
-  </si>
-  <si>
-    <t>CL</t>
-  </si>
-  <si>
-    <t>CD</t>
-  </si>
-  <si>
-    <t>Pitch Front</t>
-  </si>
-  <si>
-    <t>Pitch Rear</t>
   </si>
 </sst>
 </file>
@@ -1042,8 +1042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1056,19 +1056,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="D1" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="E1" s="26" t="s">
         <v>46</v>
-      </c>
-      <c r="D1" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="E1" s="26" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1079,10 +1079,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E2" s="11"/>
     </row>
@@ -1092,10 +1092,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E3" s="15"/>
     </row>
@@ -1126,7 +1126,7 @@
         <v>7</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1155,10 +1155,10 @@
         <v>1.44</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1166,63 +1166,63 @@
         <v>13</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C8" s="9">
         <v>-2.75</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="36"/>
       <c r="B9" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C9" s="4">
         <v>-1.0900000000000001</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="36"/>
       <c r="B10" s="2" t="s">
-        <v>20</v>
+        <v>104</v>
       </c>
       <c r="C10" s="4">
         <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E10" s="21"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="36"/>
       <c r="B11" s="2" t="s">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="C11" s="4">
         <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E11" s="21"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="36"/>
       <c r="B12" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C12" s="4">
         <v>33.700000000000003</v>
@@ -1248,7 +1248,7 @@
     <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="35"/>
       <c r="B14" s="12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C14" s="13">
         <v>1.2250000000000001</v>
@@ -1257,7 +1257,7 @@
         <v>18</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1265,7 +1265,7 @@
         <v>19</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C15" s="9">
         <v>39.700000000000003</v>
@@ -1274,13 +1274,13 @@
         <v>8</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="36"/>
       <c r="B16" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C16" s="4">
         <v>26.84</v>
@@ -1289,43 +1289,43 @@
         <v>8</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="36"/>
       <c r="B17" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C17" s="4">
         <v>0.41</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="36"/>
       <c r="B18" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C18" s="4">
         <v>4</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="36"/>
       <c r="B19" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C19" s="4">
         <v>25.4</v>
@@ -1334,13 +1334,13 @@
         <v>8</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="36"/>
       <c r="B20" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C20" s="4">
         <v>15.88</v>
@@ -1349,43 +1349,43 @@
         <v>8</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="35"/>
       <c r="B21" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C21" s="13">
         <v>2.82</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E21" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="34" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C22" s="9">
         <v>1</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E22" s="11"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="36"/>
       <c r="B23" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C23" s="4">
         <v>203.2</v>
@@ -1394,43 +1394,43 @@
         <v>8</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="36"/>
       <c r="B24" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C24" s="4">
         <v>-1E-3</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="36"/>
       <c r="B25" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C25" s="4">
         <v>2</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="36"/>
       <c r="B26" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C26" s="4">
         <v>250</v>
@@ -1439,43 +1439,43 @@
         <v>6</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="36"/>
       <c r="B27" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C27" s="4">
         <v>1E-4</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="36"/>
       <c r="B28" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C28" s="4">
         <v>1.8</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="36"/>
       <c r="B29" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C29" s="4">
         <v>250</v>
@@ -1484,311 +1484,311 @@
         <v>6</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="36"/>
       <c r="B30" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C30" s="4">
         <v>1E-4</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E30" s="21" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="36"/>
       <c r="B31" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C31" s="4">
         <v>800</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="35"/>
       <c r="B32" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C32" s="13">
         <v>1000</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="34" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C33" s="9">
         <v>1</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E33" s="11"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="36"/>
       <c r="B34" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C34" s="4">
         <v>1</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E34" s="21" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="35"/>
       <c r="B35" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C35" s="22">
         <v>1</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="31" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E36" s="11"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="32"/>
       <c r="B37" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C37" s="6">
         <v>1</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E37" s="29" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="32"/>
       <c r="B38" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C38" s="6">
         <v>0.98</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E38" s="29" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="32"/>
       <c r="B39" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C39" s="6">
         <v>0.98</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E39" s="29" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="32"/>
       <c r="B40" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C40" s="6">
         <v>0.98</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E40" s="29" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="32"/>
       <c r="B41" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C41" s="4">
         <v>1</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E41" s="21" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="32"/>
       <c r="B42" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C42" s="30">
         <v>1</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E42" s="21"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="32"/>
       <c r="B43" s="27" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C43" s="4">
         <v>12.9</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E43" s="21"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="32"/>
       <c r="B44" s="27" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E44" s="21"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="32"/>
       <c r="B45" s="27" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E45" s="21"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="32"/>
       <c r="B46" s="27" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E46" s="21"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="32"/>
       <c r="B47" s="27" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E47" s="21"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="32"/>
       <c r="B48" s="27" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E48" s="21"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="32"/>
       <c r="B49" s="27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E49" s="21"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="32"/>
       <c r="B50" s="27" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E50" s="21"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="32"/>
       <c r="B51" s="27" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E51" s="21"/>
     </row>
     <row r="52" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="33"/>
       <c r="B52" s="28" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C52" s="13"/>
       <c r="D52" s="14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E52" s="15"/>
     </row>
@@ -2387,19 +2387,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" t="s">
         <v>101</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>102</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>103</v>
-      </c>
-      <c r="D1" t="s">
-        <v>104</v>
-      </c>
-      <c r="E1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">

--- a/OpenVEHICLE_sheet_OJ.xlsx
+++ b/OpenVEHICLE_sheet_OJ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ojeif\OneDrive\Documents\Formula\VD-FOMRULA-ELECTRIC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\quinh\OneDrive\Documents\Open Lap Tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAC3DE2C-EE93-4C16-A485-D658408862A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{782FB6EB-865C-461C-87D5-EE2AA94FA510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3450" yWindow="4245" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Info" sheetId="1" r:id="rId1"/>
@@ -764,6 +764,1472 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA"/>
+              <a:t>Torque</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-CA" baseline="0"/>
+              <a:t> Curve</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-CA"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-CA"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Torque Curve'!$A$2:$A$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="65"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3700</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4300</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4600</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4900</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5200</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5800</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6100</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6400</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6700</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7300</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7600</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7900</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8200</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8500</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8800</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9100</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9400</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9700</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>10300</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>10600</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>10900</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>11200</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>11500</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>11800</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>12100</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>12400</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>12700</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>13300</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>13600</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>13900</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>14200</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>14500</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>14800</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>15100</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>15400</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>15700</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>16000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>16300</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>16600</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>16900</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>17200</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>17500</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>17800</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>18100</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>18400</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>18700</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>19000</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>19300</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>19600</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>19900</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>20000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Torque Curve'!$B$2:$B$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="65"/>
+                <c:pt idx="0">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>21.3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>20.3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>19.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>17.8</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>17.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>17.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>16.25</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>15.3</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>14.9</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>13.75</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>10.8</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>9.8000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1360-42F0-83EE-559B3E4D948B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1128591119"/>
+        <c:axId val="1128592559"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1128591119"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="22000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>RPM</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1128592559"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1128592559"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Motor</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-CA" baseline="0"/>
+                  <a:t> Torque N.M</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-CA"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-CA"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1128591119"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>228704</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>174381</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>231322</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>176892</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6925970-1D9E-5096-C65A-011358B5BE24}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>163286</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>288157</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9D50E5A-5A0E-422F-B406-89F08BAAA81A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2435679" y="6096000"/>
+          <a:ext cx="14534835" cy="3810000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1042,8 +2508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1418,7 +2884,7 @@
         <v>29</v>
       </c>
       <c r="C25" s="4">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>35</v>
@@ -1433,7 +2899,7 @@
         <v>30</v>
       </c>
       <c r="C26" s="4">
-        <v>250</v>
+        <v>71.349999999999994</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>6</v>
@@ -1463,7 +2929,7 @@
         <v>36</v>
       </c>
       <c r="C28" s="4">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>35</v>
@@ -1478,7 +2944,7 @@
         <v>37</v>
       </c>
       <c r="C29" s="4">
-        <v>250</v>
+        <v>71.349999999999994</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>6</v>
@@ -1508,7 +2974,7 @@
         <v>39</v>
       </c>
       <c r="C31" s="4">
-        <v>800</v>
+        <v>346.25</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>41</v>
@@ -1523,7 +2989,7 @@
         <v>40</v>
       </c>
       <c r="C32" s="13">
-        <v>1000</v>
+        <v>472.25</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>41</v>
@@ -1811,8 +3277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C66"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AE48" sqref="AE48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2364,8 +3830,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>

--- a/OpenVEHICLE_sheet_OJ.xlsx
+++ b/OpenVEHICLE_sheet_OJ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\quinh\OneDrive\Documents\Open Lap Tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{782FB6EB-865C-461C-87D5-EE2AA94FA510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{190FAB99-A2B2-4366-A213-FF45155DB61D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2509,7 +2509,7 @@
   <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2974,7 +2974,7 @@
         <v>39</v>
       </c>
       <c r="C31" s="4">
-        <v>346.25</v>
+        <v>459.21</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>41</v>
@@ -2989,7 +2989,7 @@
         <v>40</v>
       </c>
       <c r="C32" s="13">
-        <v>472.25</v>
+        <v>509.61</v>
       </c>
       <c r="D32" s="14" t="s">
         <v>41</v>
